--- a/document/3.数据库物理设计文档.xlsx
+++ b/document/3.数据库物理设计文档.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="135">
   <si>
     <t>网上书店平台数据库结构－表目录</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>DECIMAL(8,2)</t>
   </si>
   <si>
     <t>单价</t>
@@ -1642,7 +1645,7 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="A2" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1959,7 +1962,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
@@ -1975,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>59</v>
@@ -1986,11 +1989,11 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J5" s="5">
         <v>45268</v>
@@ -2002,7 +2005,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>59</v>
@@ -2015,7 +2018,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J6" s="5">
         <v>45268</v>
@@ -2313,7 +2316,7 @@
   <dimension ref="A2:K13"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.95" customHeight="1"/>
@@ -2643,7 +2646,7 @@
         <v>72</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
@@ -2653,7 +2656,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J13" s="5">
         <v>45267</v>
@@ -2785,7 +2788,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>45</v>
@@ -2800,7 +2803,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" s="5">
         <v>45268</v>
@@ -2812,7 +2815,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>56</v>
@@ -2827,7 +2830,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" s="5">
         <v>45268</v>
@@ -2839,7 +2842,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>45</v>
@@ -2854,7 +2857,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J7" s="5">
         <v>45268</v>
@@ -2866,7 +2869,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>59</v>
@@ -2879,7 +2882,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J8" s="5">
         <v>45268</v>
@@ -2962,7 +2965,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -3037,7 +3040,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>59</v>
@@ -3050,7 +3053,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" s="5">
         <v>45268</v>
@@ -3212,7 +3215,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>45</v>
@@ -3227,7 +3230,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5" s="5">
         <v>45268</v>
@@ -3239,7 +3242,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>59</v>
@@ -3252,7 +3255,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J6" s="5">
         <v>45268</v>
@@ -3275,15 +3278,15 @@
   <sheetPr/>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
+    <col min="3" max="3" width="19.5833333333333" style="1" customWidth="1"/>
     <col min="4" max="8" width="9" style="2"/>
     <col min="9" max="9" width="35.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.4166666666667" style="1" customWidth="1"/>
@@ -3359,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>45</v>
@@ -3376,13 +3379,13 @@
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J4" s="5">
         <v>45268</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:11">
@@ -3390,7 +3393,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>45</v>
@@ -3405,7 +3408,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J5" s="5">
         <v>45268</v>
@@ -3417,7 +3420,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>45</v>
@@ -3432,7 +3435,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J6" s="5">
         <v>45268</v>
@@ -3444,7 +3447,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>45</v>
@@ -3459,13 +3462,13 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J7" s="5">
         <v>45268</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:11">
@@ -3473,7 +3476,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>45</v>
@@ -3488,13 +3491,13 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J8" s="5">
         <v>45268</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:11">
@@ -3502,7 +3505,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>59</v>
@@ -3517,13 +3520,13 @@
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J9" s="5">
         <v>45268</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:11">
@@ -3531,10 +3534,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
@@ -3544,13 +3547,13 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J10" s="5">
         <v>45268</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:11">
@@ -3558,7 +3561,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>45</v>
@@ -3575,13 +3578,13 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J11" s="5">
         <v>45268</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:11">
@@ -3589,7 +3592,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>59</v>
@@ -3602,13 +3605,13 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J12" s="5">
         <v>45268</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:11">
@@ -3616,7 +3619,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>45</v>
@@ -3631,7 +3634,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J13" s="5">
         <v>45268</v>
@@ -3692,7 +3695,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -3738,7 +3741,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>59</v>
@@ -3753,13 +3756,13 @@
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J4" s="5">
         <v>45268</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:11">
@@ -3767,10 +3770,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -3782,7 +3785,7 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J5" s="5">
         <v>45268</v>
@@ -3848,7 +3851,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.95" customHeight="1"/>
@@ -3932,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>59</v>
@@ -3946,16 +3949,16 @@
         <v>47</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J4" s="5">
         <v>45268</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:11">
@@ -3963,10 +3966,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -3976,7 +3979,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J5" s="5">
         <v>45268</v>
@@ -3988,7 +3991,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>45</v>
@@ -4003,13 +4006,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J6" s="5">
         <v>45268</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:11">
@@ -4017,7 +4020,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>45</v>
@@ -4034,13 +4037,13 @@
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J7" s="5">
         <v>45268</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:11">
@@ -4048,10 +4051,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
@@ -4061,7 +4064,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J8" s="5">
         <v>45268</v>
